--- a/Stimuli/block7_stim_path.xlsx
+++ b/Stimuli/block7_stim_path.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
   <si>
     <t>image</t>
   </si>
@@ -23,244 +23,484 @@
     <t>corrAns</t>
   </si>
   <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target276.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target262.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor253.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor247.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor246.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor252.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target263.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target277.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target261.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target275.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target249.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor278.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor244.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor250.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor251.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor245.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor279.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target248.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target274.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target260.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target258.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target264.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target270.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor241.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor255.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor269.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor268.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor254.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target271.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target265.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target259.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target273.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target267.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor256.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor242.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor280.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor243.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor257.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target266.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target272.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target280.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target257.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target243.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor272.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor266.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor267.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor273.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target242.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target256.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target254.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target268.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor259.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor265.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor271.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor270.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor264.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor258.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target269.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target255.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target241.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target279.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target245.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target251.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor260.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor274.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor248.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor249.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor275.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor261.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target250.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target244.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target278.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target252.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target246.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor277.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor263.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor262.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/distractor276.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target247.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block7/target253.jpg</t>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor556.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor542.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor543.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor557.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target558.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor541.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor555.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor554.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor540.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target559.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target549.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor544.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor550.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor551.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor545.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target560.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target548.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor553.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor547.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor546.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor552.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor482.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor496.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target510.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target504.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target538.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor509.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor535.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor521.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor520.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor534.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor508.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target539.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target505.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target511.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor497.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor483.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor495.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor481.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target507.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target513.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target498.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor522.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor536.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor537.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor523.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target499.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target512.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target506.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor494.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor490.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor484.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target502.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target516.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target489.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor527.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor533.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor532.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor526.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target488.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target517.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target503.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor485.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor491.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor487.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor493.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target529.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target515.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target501.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor530.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor524.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor518.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor519.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor525.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor531.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target500.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target514.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target528.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor492.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor486.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target531.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target525.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target519.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target486.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target492.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor528.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor514.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor500.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor501.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor515.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor529.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target493.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target487.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target518.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target524.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target530.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor488.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target526.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target532.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target491.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target485.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor503.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor517.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor516.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor502.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target484.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target490.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target533.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target527.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor489.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor499.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target523.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target537.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target494.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor506.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor512.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor513.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor507.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target481.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target495.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target536.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target522.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor498.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target508.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target534.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target520.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target483.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target497.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor511.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor505.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor539.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor538.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor504.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor510.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target496.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target482.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target521.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target535.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target509.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target552.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target546.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target547.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target553.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target545.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target551.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor548.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor560.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor549.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target550.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target544.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target540.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target554.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor559.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/distractor558.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target555.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target541.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target557.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target543.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target542.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block7/target556.jpg</t>
   </si>
 </sst>
 </file>
@@ -609,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,7 +870,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -638,7 +878,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -662,7 +902,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -678,7 +918,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -686,7 +926,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -694,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -750,7 +990,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -758,7 +998,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -766,7 +1006,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -774,7 +1014,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -782,7 +1022,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -790,7 +1030,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -798,7 +1038,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -806,7 +1046,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -814,7 +1054,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -822,7 +1062,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -830,7 +1070,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -854,7 +1094,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -862,7 +1102,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -870,7 +1110,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -878,7 +1118,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -894,7 +1134,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -902,7 +1142,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -934,7 +1174,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -966,7 +1206,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -998,7 +1238,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1022,7 +1262,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1030,7 +1270,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1046,7 +1286,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1054,7 +1294,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1062,7 +1302,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1086,7 +1326,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1094,7 +1334,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1126,7 +1366,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1158,7 +1398,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1166,7 +1406,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1174,7 +1414,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1182,7 +1422,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1190,7 +1430,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1198,7 +1438,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1206,7 +1446,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1214,7 +1454,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1230,7 +1470,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1238,7 +1478,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1246,7 +1486,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1254,7 +1494,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1262,6 +1502,646 @@
         <v>81</v>
       </c>
       <c r="B81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161" t="n">
         <v>1</v>
       </c>
     </row>
